--- a/TOS_FORMAT.xlsx
+++ b/TOS_FORMAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\exam-bank\frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bokzg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4D07ED-FBCA-4ED3-A4E5-3DD9F276DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3895A276-B12E-4124-B923-FD95A275BCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E93E83C9-6C96-40F1-898F-E80A2AAB2207}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67A84FA7-E9DA-4E36-B89B-5878F66C9380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>EXAM GENERATOR FORMAT</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
   <si>
     <t>Comprehension</t>
   </si>
   <si>
-    <t>Knowledge</t>
-  </si>
-  <si>
     <t>Application</t>
   </si>
   <si>
@@ -56,10 +59,16 @@
     <t>Evaluation</t>
   </si>
   <si>
-    <t>ITEMS</t>
-  </si>
-  <si>
-    <t>PLEASE DO NOT EDIT OR REMOVE THIS ROW</t>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Numeric</t>
   </si>
 </sst>
 </file>
@@ -75,21 +84,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,13 +100,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,52 +464,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E8B3BC-B346-4A05-8DF8-244384D547CB}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B613D9DF-1439-4067-95D3-00F65386C4F8}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>